--- a/Share/Price list/ATALI10122022.xlsx
+++ b/Share/Price list/ATALI10122022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20295" windowHeight="11895"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20295" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7112,8 +7112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A801" workbookViewId="0">
+      <selection activeCell="A837" sqref="A837"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7132,7 +7132,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8042,7 +8042,7 @@
       <c r="D56" s="16"/>
       <c r="E56" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8952,7 +8952,7 @@
       <c r="D111" s="16"/>
       <c r="E111" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9785,7 +9785,7 @@
       <c r="D166" s="16"/>
       <c r="E166" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10655,7 +10655,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11560,7 +11560,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12446,7 +12446,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13317,7 +13317,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14219,7 +14219,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15076,7 +15076,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15954,7 +15954,7 @@
       <c r="D551" s="2"/>
       <c r="E551" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16851,7 +16851,7 @@
       <c r="D606" s="2"/>
       <c r="E606" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17745,7 +17745,7 @@
       <c r="D661" s="16"/>
       <c r="E661" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18629,7 +18629,7 @@
       <c r="D716" s="2"/>
       <c r="E716" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="717" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19507,7 +19507,7 @@
       <c r="D771" s="2"/>
       <c r="E771" s="63">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="772" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20401,7 +20401,7 @@
       <c r="D826" s="2"/>
       <c r="E826" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="827" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21271,7 +21271,7 @@
       <c r="D881" s="2"/>
       <c r="E881" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="882" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22141,7 +22141,7 @@
       <c r="D936" s="2"/>
       <c r="E936" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="937" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23011,7 +23011,7 @@
       <c r="D991" s="2"/>
       <c r="E991" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23903,7 +23903,7 @@
       <c r="D1046" s="2"/>
       <c r="E1046" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24773,7 +24773,7 @@
       <c r="D1101" s="2"/>
       <c r="E1101" s="3">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25651,7 +25651,7 @@
       <c r="D1156" s="16"/>
       <c r="E1156" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26538,7 +26538,7 @@
       <c r="D1211" s="16"/>
       <c r="E1211" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27416,7 +27416,7 @@
       <c r="D1266" s="16"/>
       <c r="E1266" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28287,7 +28287,7 @@
       <c r="D1321" s="16"/>
       <c r="E1321" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29160,7 +29160,7 @@
       <c r="D1376" s="16"/>
       <c r="E1376" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30036,7 +30036,7 @@
       <c r="D1431" s="16"/>
       <c r="E1431" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30898,7 +30898,7 @@
       <c r="D1486" s="16"/>
       <c r="E1486" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1487" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31778,7 +31778,7 @@
       <c r="D1541" s="16"/>
       <c r="E1541" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32696,7 +32696,7 @@
       <c r="D1596" s="16"/>
       <c r="E1596" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1597" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33566,7 +33566,7 @@
       <c r="D1651" s="16"/>
       <c r="E1651" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34444,7 +34444,7 @@
       <c r="D1706" s="16"/>
       <c r="E1706" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1707" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35284,7 +35284,7 @@
       <c r="D1761" s="16"/>
       <c r="E1761" s="17">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="1762" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
